--- a/data/trans_camb/IP19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 4,02</t>
+          <t>-14,05; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; -3,16</t>
+          <t>-17,55; -3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 5,5</t>
+          <t>-12,55; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -1,73</t>
+          <t>-16,26; -1,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -1,73</t>
+          <t>-15,09; -1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -1,73</t>
+          <t>-15,41; -1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -0,38</t>
+          <t>-10,83; -0,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -3,73</t>
+          <t>-12,7; -3,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -0,2</t>
+          <t>-10,57; 0,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 198,16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 352,9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 17,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 18,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,13</t>
+          <t>-100,0; 108,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,56</t>
+          <t>-4,37; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,98</t>
+          <t>-4,67; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,37</t>
+          <t>-5,09; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,45</t>
+          <t>-3,38; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,77</t>
+          <t>-3,52; 2,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -0,3</t>
+          <t>-6,0; -0,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,41</t>
+          <t>-3,14; 1,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,09</t>
+          <t>-3,47; 0,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,18</t>
+          <t>-4,87; 0,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 51,35</t>
+          <t>-64,3; 50,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 35,94</t>
+          <t>-69,18; 30,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,45; 82,42</t>
+          <t>-81,89; 97,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 99,57</t>
+          <t>-49,81; 113,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 75,52</t>
+          <t>-53,03; 81,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,65; 0,33</t>
+          <t>-80,47; 7,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 33,6</t>
+          <t>-48,26; 44,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 27,59</t>
+          <t>-52,08; 22,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,57; 18,14</t>
+          <t>-75,62; 19,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,14</t>
+          <t>-2,61; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,49</t>
+          <t>-4,19; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,59</t>
+          <t>-1,53; 6,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 3,2</t>
+          <t>-8,98; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,72; -0,04</t>
+          <t>-10,99; -0,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,46</t>
+          <t>-9,81; 0,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,13</t>
+          <t>-4,34; 2,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,45</t>
+          <t>-6,63; 0,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,82</t>
+          <t>-4,59; 2,55</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,28; —</t>
+          <t>-56,91; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 101,9</t>
+          <t>-84,09; 122,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-94,12; 58,58</t>
+          <t>-100,0; 27,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,07; 49,28</t>
+          <t>-91,22; 53,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 129,68</t>
+          <t>-69,58; 127,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,58; 35,11</t>
+          <t>-90,78; 47,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 137,57</t>
+          <t>-71,81; 127,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,2</t>
+          <t>-3,45; 1,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,09</t>
+          <t>-4,23; 0,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,98</t>
+          <t>-3,9; 1,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,3</t>
+          <t>-4,38; 1,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,79</t>
+          <t>-4,45; 0,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,03</t>
+          <t>-6,01; -1,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,44</t>
+          <t>-2,94; 0,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,47</t>
+          <t>-3,81; -0,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; -0,48</t>
+          <t>-4,28; -0,48</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 37,82</t>
+          <t>-55,95; 42,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 1,67</t>
+          <t>-70,1; 20,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 57,08</t>
+          <t>-65,42; 66,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 33,15</t>
+          <t>-57,33; 30,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 23,39</t>
+          <t>-61,06; 25,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,45; -19,48</t>
+          <t>-81,21; -17,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 12,06</t>
+          <t>-48,47; 11,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,07; -8,15</t>
+          <t>-62,62; -10,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,51; -8,79</t>
+          <t>-67,65; -6,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-6,51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-6,51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-3,72</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-8,18</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,51</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-5,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 3,97</t>
+          <t>-15,2; -1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -3,16</t>
+          <t>-16,36; -1,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 6,42</t>
+          <t>-15,74; -1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -1,47</t>
+          <t>-12,91; 4,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -1,73</t>
+          <t>-18,81; -3,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -1,96</t>
+          <t>-13,5; 5,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,47</t>
+          <t>-10,83; -0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,83</t>
+          <t>-12,68; -3,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 0,49</t>
+          <t>-10,93; -0,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-45,42%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-44,37%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-45,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-71,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-71,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,6%</t>
+          <t>-71,88%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 198,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 352,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 220,68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 263,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-95,0; 21,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 17,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 108,04</t>
+          <t>-100,0; 53,7</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-1,41</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,83</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,58</t>
+          <t>-3,48; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,88</t>
+          <t>-3,97; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 2,47</t>
+          <t>-5,78; -0,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,71</t>
+          <t>-4,53; 1,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,82</t>
+          <t>-4,77; 1,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -0,33</t>
+          <t>-5,44; 2,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,72</t>
+          <t>-3,09; 1,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,84</t>
+          <t>-3,28; 1,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,11</t>
+          <t>-4,8; -0,0</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-8,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-55,11%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-27,49%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-35,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-45,11%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,13%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,4%</t>
+          <t>-47,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>-50,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 50,09</t>
+          <t>-51,65; 97,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 30,09</t>
+          <t>-56,38; 74,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,89; 97,64</t>
+          <t>-85,54; 4,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 113,43</t>
+          <t>-67,07; 42,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 81,19</t>
+          <t>-70,7; 40,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,47; 7,57</t>
+          <t>-85,18; 90,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 44,9</t>
+          <t>-47,89; 42,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,08; 22,46</t>
+          <t>-51,57; 30,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 19,99</t>
+          <t>-77,63; 4,65</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,68</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,24</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,59</t>
+          <t>-9,08; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,52</t>
+          <t>-11,18; -0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,59</t>
+          <t>-10,0; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 2,8</t>
+          <t>-2,77; 6,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -0,25</t>
+          <t>-4,52; 2,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 0,96</t>
+          <t>-0,98; 7,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,91</t>
+          <t>-4,12; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 0,33</t>
+          <t>-6,19; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,55</t>
+          <t>-4,34; 2,89</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-39,81%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-70,17%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-62,14%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>90,32%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-12,74%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>144,39%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-39,81%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-70,17%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,7%</t>
+          <t>158,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-11,46%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-85,64; 101,55</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 31,32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-91,24; 33,53</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-56,91; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-84,09; 122,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 27,33</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,22; 53,21</t>
+          <t>-64,89; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 127,75</t>
+          <t>-66,02; 124,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,78; 47,1</t>
+          <t>-90,75; 38,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 127,83</t>
+          <t>-65,95; 126,25</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-2,19</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,41</t>
+          <t>-4,22; 1,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,6</t>
+          <t>-4,65; 0,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,97</t>
+          <t>-6,23; -1,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,09</t>
+          <t>-3,66; 1,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,96</t>
+          <t>-4,45; 0,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -1,03</t>
+          <t>-4,01; 1,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,45</t>
+          <t>-2,95; 0,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; -0,54</t>
+          <t>-3,69; -0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,48</t>
+          <t>-3,94; -0,34</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-33,18%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-61,23%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-22,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-45,24%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-29,79%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-26,21%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-33,18%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,87%</t>
+          <t>-45,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 42,49</t>
+          <t>-58,01; 31,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 20,54</t>
+          <t>-63,25; 19,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 66,14</t>
+          <t>-81,87; -28,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 30,97</t>
+          <t>-58,29; 41,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,06; 25,52</t>
+          <t>-72,3; 10,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,21; -17,79</t>
+          <t>-65,41; 49,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 11,58</t>
+          <t>-48,09; 13,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -10,96</t>
+          <t>-59,72; -4,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,65; -6,43</t>
+          <t>-65,0; -5,12</t>
         </is>
       </c>
     </row>
